--- a/Projet/Sprint 1/Global/BD/données csv.xlsx
+++ b/Projet/Sprint 1/Global/BD/données csv.xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HansIV4\Documents\equipe2Projet\Projet\Sprint 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HansIV4\Documents\equipe2Projet\Projet\Sprint 1\Global\BD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10050" activeTab="1" xr2:uid="{E5871215-206F-48DE-BCFC-E07327842E35}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10050" firstSheet="2" activeTab="4" xr2:uid="{E5871215-206F-48DE-BCFC-E07327842E35}"/>
   </bookViews>
   <sheets>
     <sheet name="tblStagiaires" sheetId="1" r:id="rId1"/>
     <sheet name="tblEntreprise" sheetId="2" r:id="rId2"/>
+    <sheet name="tblEmployeCegep" sheetId="3" r:id="rId3"/>
+    <sheet name="tblGestionnaire" sheetId="4" r:id="rId4"/>
+    <sheet name="tblEnseignant" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="614">
   <si>
     <t>courrierScolaire</t>
   </si>
@@ -1861,6 +1864,12 @@
   </si>
   <si>
     <t>5211C</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>idEmployeCegep</t>
   </si>
 </sst>
 </file>
@@ -2364,7 +2373,7 @@
       </c>
       <c r="H2">
         <f ca="1" xml:space="preserve"> RANDBETWEEN(1,999)</f>
-        <v>374</v>
+        <v>998</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>352</v>
@@ -2394,7 +2403,7 @@
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H50" ca="1" si="0" xml:space="preserve"> RANDBETWEEN(1,999)</f>
-        <v>820</v>
+        <v>332</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>353</v>
@@ -2424,7 +2433,7 @@
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>276</v>
+        <v>892</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>354</v>
@@ -2454,7 +2463,7 @@
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>222</v>
+        <v>463</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>355</v>
@@ -2484,7 +2493,7 @@
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>680</v>
+        <v>477</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>356</v>
@@ -2514,7 +2523,7 @@
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>584</v>
+        <v>840</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>357</v>
@@ -2544,7 +2553,7 @@
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>530</v>
+        <v>245</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>358</v>
@@ -2574,7 +2583,7 @@
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>790</v>
+        <v>454</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>359</v>
@@ -2604,7 +2613,7 @@
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>360</v>
@@ -2634,7 +2643,7 @@
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>402</v>
+        <v>930</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>361</v>
@@ -2664,7 +2673,7 @@
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>463</v>
+        <v>999</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>362</v>
@@ -2694,7 +2703,7 @@
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>979</v>
+        <v>174</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>363</v>
@@ -2724,7 +2733,7 @@
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>308</v>
+        <v>586</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>364</v>
@@ -2754,7 +2763,7 @@
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>707</v>
+        <v>88</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>365</v>
@@ -2784,7 +2793,7 @@
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>782</v>
+        <v>316</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>366</v>
@@ -2814,7 +2823,7 @@
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="0"/>
-        <v>587</v>
+        <v>91</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>367</v>
@@ -2844,7 +2853,7 @@
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="0"/>
-        <v>778</v>
+        <v>475</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>368</v>
@@ -2874,7 +2883,7 @@
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="0"/>
-        <v>254</v>
+        <v>856</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>369</v>
@@ -2904,7 +2913,7 @@
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>158</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>370</v>
@@ -2934,7 +2943,7 @@
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>198</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>371</v>
@@ -2964,7 +2973,7 @@
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="0"/>
-        <v>233</v>
+        <v>797</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>372</v>
@@ -2994,7 +3003,7 @@
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="0"/>
-        <v>336</v>
+        <v>432</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>373</v>
@@ -3024,7 +3033,7 @@
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="0"/>
-        <v>658</v>
+        <v>49</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>374</v>
@@ -3054,7 +3063,7 @@
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="0"/>
-        <v>869</v>
+        <v>731</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>375</v>
@@ -3084,7 +3093,7 @@
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="0"/>
-        <v>429</v>
+        <v>59</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>376</v>
@@ -3114,7 +3123,7 @@
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="0"/>
-        <v>852</v>
+        <v>571</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>377</v>
@@ -3144,7 +3153,7 @@
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>792</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>378</v>
@@ -3174,7 +3183,7 @@
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="0"/>
-        <v>769</v>
+        <v>256</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>379</v>
@@ -3204,7 +3213,7 @@
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="0"/>
-        <v>319</v>
+        <v>457</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>380</v>
@@ -3234,7 +3243,7 @@
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="0"/>
-        <v>331</v>
+        <v>148</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>381</v>
@@ -3264,7 +3273,7 @@
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>382</v>
@@ -3294,7 +3303,7 @@
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="0"/>
-        <v>438</v>
+        <v>891</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>383</v>
@@ -3324,7 +3333,7 @@
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="0"/>
-        <v>161</v>
+        <v>74</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>384</v>
@@ -3354,7 +3363,7 @@
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="0"/>
-        <v>365</v>
+        <v>967</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>385</v>
@@ -3384,7 +3393,7 @@
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="0"/>
-        <v>432</v>
+        <v>140</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>386</v>
@@ -3414,7 +3423,7 @@
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="0"/>
-        <v>280</v>
+        <v>242</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>387</v>
@@ -3444,7 +3453,7 @@
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="0"/>
-        <v>160</v>
+        <v>629</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>388</v>
@@ -3474,7 +3483,7 @@
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="0"/>
-        <v>954</v>
+        <v>822</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>389</v>
@@ -3504,7 +3513,7 @@
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="0"/>
-        <v>872</v>
+        <v>717</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>390</v>
@@ -3534,7 +3543,7 @@
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="0"/>
-        <v>367</v>
+        <v>450</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>391</v>
@@ -3564,7 +3573,7 @@
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="0"/>
-        <v>606</v>
+        <v>97</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>392</v>
@@ -3594,7 +3603,7 @@
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="0"/>
-        <v>612</v>
+        <v>595</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>393</v>
@@ -3624,7 +3633,7 @@
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="0"/>
-        <v>353</v>
+        <v>586</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>394</v>
@@ -3654,7 +3663,7 @@
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="0"/>
-        <v>971</v>
+        <v>470</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>395</v>
@@ -3684,7 +3693,7 @@
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="0"/>
-        <v>935</v>
+        <v>375</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>396</v>
@@ -3714,7 +3723,7 @@
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="0"/>
-        <v>117</v>
+        <v>235</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>397</v>
@@ -3744,7 +3753,7 @@
       </c>
       <c r="H48">
         <f t="shared" ca="1" si="0"/>
-        <v>131</v>
+        <v>192</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>398</v>
@@ -3774,7 +3783,7 @@
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="0"/>
-        <v>403</v>
+        <v>843</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>399</v>
@@ -3804,7 +3813,7 @@
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="0"/>
-        <v>634</v>
+        <v>981</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>400</v>
@@ -4161,7 +4170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F0331B6-59FF-4A61-910E-4C0C4DCCBBDF}">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
@@ -5370,4 +5379,1215 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A373E1-B134-4804-935A-A6B79B4680D9}">
+  <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:A83"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA1B3C5-6E46-42C3-BAE2-FFC8C07503C5}">
+  <dimension ref="A1:B51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:C106"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f ca="1">RANDBETWEEN(0,50)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B66" ca="1" si="0">RANDBETWEEN(0,50)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ca="1" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ca="1" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ca="1" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ca="1" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ca="1" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ca="1" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ca="1" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ca="1" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ca="1" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ca="1" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ca="1" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ca="1" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ca="1" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ca="1" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ca="1" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ca="1" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ca="1" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ca="1" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ca="1" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ca="1" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ca="1" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ca="1" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ca="1" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA7E69E-5F19-4539-B993-C1D749F5A219}">
+  <dimension ref="A1:B51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f ca="1">RANDBETWEEN(0,50)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B66" ca="1" si="0">RANDBETWEEN(0,50)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ca="1" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ca="1" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ca="1" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ca="1" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ca="1" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ca="1" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ca="1" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ca="1" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ca="1" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ca="1" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ca="1" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ca="1" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Projet/Sprint 1/Global/BD/données csv.xlsx
+++ b/Projet/Sprint 1/Global/BD/données csv.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10050" firstSheet="2" activeTab="4" xr2:uid="{E5871215-206F-48DE-BCFC-E07327842E35}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10050" firstSheet="3" activeTab="5" xr2:uid="{E5871215-206F-48DE-BCFC-E07327842E35}"/>
   </bookViews>
   <sheets>
     <sheet name="tblStagiaires" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="tblEmployeCegep" sheetId="3" r:id="rId3"/>
     <sheet name="tblGestionnaire" sheetId="4" r:id="rId4"/>
     <sheet name="tblEnseignant" sheetId="5" r:id="rId5"/>
+    <sheet name="tblStageid" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="620">
   <si>
     <t>courrierScolaire</t>
   </si>
@@ -1870,6 +1871,24 @@
   </si>
   <si>
     <t>idEmployeCegep</t>
+  </si>
+  <si>
+    <t>idEntreprise</t>
+  </si>
+  <si>
+    <t>idResponsable</t>
+  </si>
+  <si>
+    <t>idSuperviseur</t>
+  </si>
+  <si>
+    <t>idStagiaire</t>
+  </si>
+  <si>
+    <t>idGestionnaire</t>
+  </si>
+  <si>
+    <t>idEnseignant</t>
   </si>
 </sst>
 </file>
@@ -2373,7 +2392,7 @@
       </c>
       <c r="H2">
         <f ca="1" xml:space="preserve"> RANDBETWEEN(1,999)</f>
-        <v>998</v>
+        <v>548</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>352</v>
@@ -2403,7 +2422,7 @@
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H50" ca="1" si="0" xml:space="preserve"> RANDBETWEEN(1,999)</f>
-        <v>332</v>
+        <v>858</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>353</v>
@@ -2433,7 +2452,7 @@
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>892</v>
+        <v>51</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>354</v>
@@ -2463,7 +2482,7 @@
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>463</v>
+        <v>529</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>355</v>
@@ -2493,7 +2512,7 @@
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>477</v>
+        <v>228</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>356</v>
@@ -2523,7 +2542,7 @@
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>840</v>
+        <v>295</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>357</v>
@@ -2553,7 +2572,7 @@
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>245</v>
+        <v>415</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>358</v>
@@ -2583,7 +2602,7 @@
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>454</v>
+        <v>284</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>359</v>
@@ -2613,7 +2632,7 @@
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>683</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>360</v>
@@ -2643,7 +2662,7 @@
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>930</v>
+        <v>275</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>361</v>
@@ -2673,7 +2692,7 @@
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>999</v>
+        <v>406</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>362</v>
@@ -2703,7 +2722,7 @@
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>174</v>
+        <v>626</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>363</v>
@@ -2733,7 +2752,7 @@
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>586</v>
+        <v>771</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>364</v>
@@ -2763,7 +2782,7 @@
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>365</v>
@@ -2793,7 +2812,7 @@
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>316</v>
+        <v>261</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>366</v>
@@ -2823,7 +2842,7 @@
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>412</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>367</v>
@@ -2853,7 +2872,7 @@
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="0"/>
-        <v>475</v>
+        <v>98</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>368</v>
@@ -2883,7 +2902,7 @@
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="0"/>
-        <v>856</v>
+        <v>904</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>369</v>
@@ -2913,7 +2932,7 @@
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="0"/>
-        <v>158</v>
+        <v>684</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>370</v>
@@ -2943,7 +2962,7 @@
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="0"/>
-        <v>198</v>
+        <v>381</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>371</v>
@@ -2973,7 +2992,7 @@
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="0"/>
-        <v>797</v>
+        <v>188</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>372</v>
@@ -3003,7 +3022,7 @@
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="0"/>
-        <v>432</v>
+        <v>551</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>373</v>
@@ -3033,7 +3052,7 @@
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>830</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>374</v>
@@ -3063,7 +3082,7 @@
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="0"/>
-        <v>731</v>
+        <v>270</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>375</v>
@@ -3093,7 +3112,7 @@
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>453</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>376</v>
@@ -3123,7 +3142,7 @@
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="0"/>
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>377</v>
@@ -3153,7 +3172,7 @@
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="0"/>
-        <v>792</v>
+        <v>936</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>378</v>
@@ -3183,7 +3202,7 @@
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="0"/>
-        <v>256</v>
+        <v>677</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>379</v>
@@ -3213,7 +3232,7 @@
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="0"/>
-        <v>457</v>
+        <v>777</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>380</v>
@@ -3243,7 +3262,7 @@
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="0"/>
-        <v>148</v>
+        <v>785</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>381</v>
@@ -3273,7 +3292,7 @@
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>967</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>382</v>
@@ -3303,7 +3322,7 @@
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="0"/>
-        <v>891</v>
+        <v>365</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>383</v>
@@ -3333,7 +3352,7 @@
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>260</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>384</v>
@@ -3363,7 +3382,7 @@
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="0"/>
-        <v>967</v>
+        <v>264</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>385</v>
@@ -3393,7 +3412,7 @@
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="0"/>
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>386</v>
@@ -3423,7 +3442,7 @@
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="0"/>
-        <v>242</v>
+        <v>900</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>387</v>
@@ -3453,7 +3472,7 @@
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="0"/>
-        <v>629</v>
+        <v>361</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>388</v>
@@ -3483,7 +3502,7 @@
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="0"/>
-        <v>822</v>
+        <v>771</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>389</v>
@@ -3513,7 +3532,7 @@
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="0"/>
-        <v>717</v>
+        <v>456</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>390</v>
@@ -3543,7 +3562,7 @@
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="0"/>
-        <v>450</v>
+        <v>966</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>391</v>
@@ -3573,7 +3592,7 @@
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>676</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>392</v>
@@ -3603,7 +3622,7 @@
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="0"/>
-        <v>595</v>
+        <v>651</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>393</v>
@@ -3633,7 +3652,7 @@
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="0"/>
-        <v>586</v>
+        <v>826</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>394</v>
@@ -3663,7 +3682,7 @@
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="0"/>
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>395</v>
@@ -3693,7 +3712,7 @@
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="0"/>
-        <v>375</v>
+        <v>269</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>396</v>
@@ -3723,7 +3742,7 @@
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="0"/>
-        <v>235</v>
+        <v>318</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>397</v>
@@ -3753,7 +3772,7 @@
       </c>
       <c r="H48">
         <f t="shared" ca="1" si="0"/>
-        <v>192</v>
+        <v>584</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>398</v>
@@ -3783,7 +3802,7 @@
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="0"/>
-        <v>843</v>
+        <v>451</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>399</v>
@@ -3813,7 +3832,7 @@
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="0"/>
-        <v>981</v>
+        <v>219</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>400</v>
@@ -5670,7 +5689,7 @@
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(0,50)</f>
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -5678,8 +5697,8 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B66" ca="1" si="0">RANDBETWEEN(0,50)</f>
-        <v>0</v>
+        <f t="shared" ref="B3:B51" ca="1" si="0">RANDBETWEEN(0,50)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -5688,7 +5707,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -5697,7 +5716,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -5706,7 +5725,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -5715,7 +5734,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -5724,7 +5743,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -5733,7 +5752,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -5742,7 +5761,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -5751,7 +5770,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -5760,7 +5779,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -5769,7 +5788,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -5778,7 +5797,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -5787,7 +5806,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -5796,7 +5815,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -5805,7 +5824,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -5814,7 +5833,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -5823,7 +5842,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -5832,7 +5851,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -5841,7 +5860,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -5850,7 +5869,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -5859,7 +5878,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -5868,7 +5887,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -5877,7 +5896,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -5886,7 +5905,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -5895,7 +5914,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -5904,7 +5923,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -5913,7 +5932,7 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -5922,7 +5941,7 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -5931,7 +5950,7 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -5940,7 +5959,7 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -5949,7 +5968,7 @@
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -5958,7 +5977,7 @@
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -5967,7 +5986,7 @@
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -5976,7 +5995,7 @@
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -5985,7 +6004,7 @@
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -5994,7 +6013,7 @@
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -6003,7 +6022,7 @@
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -6012,7 +6031,7 @@
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -6021,7 +6040,7 @@
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -6030,7 +6049,7 @@
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -6039,7 +6058,7 @@
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -6048,7 +6067,7 @@
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -6057,7 +6076,7 @@
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -6066,7 +6085,7 @@
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -6075,7 +6094,7 @@
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -6084,7 +6103,7 @@
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -6093,7 +6112,7 @@
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -6102,7 +6121,7 @@
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -6111,7 +6130,7 @@
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -6123,7 +6142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA7E69E-5F19-4539-B993-C1D749F5A219}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
@@ -6143,7 +6162,7 @@
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(0,50)</f>
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -6151,8 +6170,8 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B66" ca="1" si="0">RANDBETWEEN(0,50)</f>
-        <v>23</v>
+        <f t="shared" ref="B3:B51" ca="1" si="0">RANDBETWEEN(0,50)</f>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -6161,7 +6180,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -6170,7 +6189,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -6179,7 +6198,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -6188,7 +6207,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -6197,7 +6216,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -6206,7 +6225,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -6215,7 +6234,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -6224,7 +6243,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -6233,7 +6252,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -6242,7 +6261,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -6251,7 +6270,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -6260,7 +6279,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -6269,7 +6288,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -6278,7 +6297,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -6287,7 +6306,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -6296,7 +6315,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -6305,7 +6324,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -6314,7 +6333,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -6323,7 +6342,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -6332,7 +6351,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -6341,7 +6360,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -6350,7 +6369,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -6359,7 +6378,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -6368,7 +6387,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -6377,7 +6396,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -6386,7 +6405,7 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -6395,7 +6414,7 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -6404,7 +6423,7 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -6413,7 +6432,7 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -6422,7 +6441,7 @@
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -6431,7 +6450,7 @@
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -6440,7 +6459,7 @@
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -6449,7 +6468,7 @@
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -6458,7 +6477,7 @@
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -6467,7 +6486,7 @@
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -6476,7 +6495,7 @@
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -6485,7 +6504,7 @@
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -6503,7 +6522,7 @@
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -6512,7 +6531,7 @@
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -6521,7 +6540,7 @@
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -6530,7 +6549,7 @@
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -6539,7 +6558,7 @@
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -6548,7 +6567,7 @@
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -6557,7 +6576,7 @@
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -6566,7 +6585,7 @@
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -6575,7 +6594,7 @@
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -6584,7 +6603,1648 @@
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68779494-DBFD-4366-8733-7ADAF6D80037}">
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:J157"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B1" t="s">
+        <v>614</v>
+      </c>
+      <c r="C1" t="s">
+        <v>615</v>
+      </c>
+      <c r="D1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E1" t="s">
+        <v>616</v>
+      </c>
+      <c r="F1" t="s">
+        <v>617</v>
+      </c>
+      <c r="G1" t="s">
+        <v>618</v>
+      </c>
+      <c r="H1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f ca="1">RANDBETWEEN(1,50)</f>
+        <v>41</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:E2" ca="1" si="0">RANDBETWEEN(1,50)</f>
+        <v>35</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f ca="1">RANDBETWEEN(1,50)</f>
+        <v>45</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:J2" ca="1" si="1">RANDBETWEEN(1,50)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:E66" ca="1" si="2">RANDBETWEEN(1,50)</f>
+        <v>41</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ca="1" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:J66" ca="1" si="3">RANDBETWEEN(1,50)</f>
+        <v>34</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ca="1" si="3"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ca="1" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ca="1" si="3"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ca="1" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ca="1" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ca="1" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ca="1" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ca="1" si="3"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ca="1" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ca="1" si="3"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ca="1" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ca="1" si="3"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ca="1" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ca="1" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ca="1" si="3"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ca="1" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ca="1" si="3"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ca="1" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ca="1" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ca="1" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ca="1" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ca="1" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ca="1" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ca="1" si="3"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ca="1" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="F13">
+        <v>12</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ca="1" si="3"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ca="1" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ca="1" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="F14">
+        <v>13</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ca="1" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="F15">
+        <v>14</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ca="1" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ca="1" si="3"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="F16">
+        <v>15</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ca="1" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ca="1" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ca="1" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ca="1" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="F17">
+        <v>16</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ca="1" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ca="1" si="3"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ca="1" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ca="1" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="F18">
+        <v>17</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ca="1" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ca="1" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="2"/>
         <v>31</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>18</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ca="1" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ca="1" si="3"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ca="1" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="F20">
+        <v>19</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ca="1" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ca="1" si="3"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ca="1" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ca="1" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ca="1" si="3"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ca="1" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ca="1" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ca="1" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ca="1" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="F22">
+        <v>21</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ca="1" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="H22">
+        <f t="shared" ca="1" si="3"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ca="1" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ca="1" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ca="1" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="F23">
+        <v>22</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="H23">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ca="1" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ca="1" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="F24">
+        <v>23</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ca="1" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ca="1" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ca="1" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ca="1" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="F25">
+        <v>24</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ca="1" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ca="1" si="3"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ca="1" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ca="1" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ca="1" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="F26">
+        <v>25</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ca="1" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="H26">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ca="1" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ca="1" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="F27">
+        <v>26</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ca="1" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ca="1" si="3"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ca="1" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ca="1" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ca="1" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="F28">
+        <v>27</v>
+      </c>
+      <c r="G28">
+        <f t="shared" ca="1" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="H28">
+        <f t="shared" ca="1" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ca="1" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ca="1" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ca="1" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="F29">
+        <v>28</v>
+      </c>
+      <c r="G29">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="H29">
+        <f t="shared" ca="1" si="3"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ca="1" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="F30">
+        <v>29</v>
+      </c>
+      <c r="G30">
+        <f t="shared" ca="1" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="H30">
+        <f t="shared" ca="1" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ca="1" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ca="1" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="F31">
+        <v>30</v>
+      </c>
+      <c r="G31">
+        <f t="shared" ca="1" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="H31">
+        <f t="shared" ca="1" si="3"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ca="1" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ca="1" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ca="1" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ca="1" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="F32">
+        <v>31</v>
+      </c>
+      <c r="G32">
+        <f t="shared" ca="1" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="H32">
+        <f t="shared" ca="1" si="3"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="F33">
+        <v>32</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ca="1" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="H33">
+        <f t="shared" ca="1" si="3"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ca="1" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ca="1" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ca="1" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="F34">
+        <v>33</v>
+      </c>
+      <c r="G34">
+        <f t="shared" ca="1" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="H34">
+        <f t="shared" ca="1" si="3"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ca="1" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ca="1" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ca="1" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ca="1" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="F35">
+        <v>34</v>
+      </c>
+      <c r="G35">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="H35">
+        <f t="shared" ca="1" si="3"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ca="1" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ca="1" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ca="1" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="F36">
+        <v>35</v>
+      </c>
+      <c r="G36">
+        <f t="shared" ca="1" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="H36">
+        <f t="shared" ca="1" si="3"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ca="1" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ca="1" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="F37">
+        <v>36</v>
+      </c>
+      <c r="G37">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <f t="shared" ca="1" si="3"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ca="1" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ca="1" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ca="1" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ca="1" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="F38">
+        <v>37</v>
+      </c>
+      <c r="G38">
+        <f t="shared" ca="1" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="H38">
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ca="1" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ca="1" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ca="1" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ca="1" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="F39">
+        <v>38</v>
+      </c>
+      <c r="G39">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <f t="shared" ca="1" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ca="1" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ca="1" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ca="1" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ca="1" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="F40">
+        <v>39</v>
+      </c>
+      <c r="G40">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <f t="shared" ca="1" si="3"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ca="1" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ca="1" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ca="1" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>40</v>
+      </c>
+      <c r="G41">
+        <f t="shared" ca="1" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="H41">
+        <f t="shared" ca="1" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ca="1" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ca="1" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ca="1" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F42">
+        <v>41</v>
+      </c>
+      <c r="G42">
+        <f t="shared" ca="1" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="H42">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ca="1" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ca="1" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ca="1" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="F43">
+        <v>42</v>
+      </c>
+      <c r="G43">
+        <f t="shared" ca="1" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="H43">
+        <f t="shared" ca="1" si="3"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ca="1" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ca="1" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ca="1" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="F44">
+        <v>43</v>
+      </c>
+      <c r="G44">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="H44">
+        <f t="shared" ca="1" si="3"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ca="1" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ca="1" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ca="1" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="F45">
+        <v>44</v>
+      </c>
+      <c r="G45">
+        <f t="shared" ca="1" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="H45">
+        <f t="shared" ca="1" si="3"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ca="1" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ca="1" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ca="1" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ca="1" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="F46">
+        <v>45</v>
+      </c>
+      <c r="G46">
+        <f t="shared" ca="1" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="H46">
+        <f t="shared" ca="1" si="3"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ca="1" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ca="1" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ca="1" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="F47">
+        <v>46</v>
+      </c>
+      <c r="G47">
+        <f t="shared" ca="1" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="H47">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ca="1" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ca="1" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F48">
+        <v>47</v>
+      </c>
+      <c r="G48">
+        <f t="shared" ca="1" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="H48">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ca="1" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ca="1" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ca="1" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ca="1" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="F49">
+        <v>48</v>
+      </c>
+      <c r="G49">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="H49">
+        <f t="shared" ca="1" si="3"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ca="1" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ca="1" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="E50">
+        <f t="shared" ca="1" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="F50">
+        <v>49</v>
+      </c>
+      <c r="G50">
+        <f t="shared" ca="1" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="H50">
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ca="1" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ca="1" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F51">
+        <v>50</v>
+      </c>
+      <c r="G51">
+        <f t="shared" ca="1" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="H51">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Projet/Sprint 1/Global/BD/données csv.xlsx
+++ b/Projet/Sprint 1/Global/BD/données csv.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HansIV4\Documents\equipe2Projet\Projet\Sprint 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projet_fin\Projet\Sprint 1\Global\BD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10050" activeTab="1" xr2:uid="{E5871215-206F-48DE-BCFC-E07327842E35}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="10056" activeTab="1" xr2:uid="{E5871215-206F-48DE-BCFC-E07327842E35}"/>
   </bookViews>
   <sheets>
     <sheet name="tblStagiaires" sheetId="1" r:id="rId1"/>
@@ -1962,10 +1962,10 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>127000</xdr:colOff>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>784860</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>175260</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2309,9 +2309,9 @@
       <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>107</v>
       </c>
@@ -2364,13 +2364,13 @@
       </c>
       <c r="H2">
         <f ca="1" xml:space="preserve"> RANDBETWEEN(1,999)</f>
-        <v>374</v>
+        <v>14</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>108</v>
       </c>
@@ -2394,13 +2394,13 @@
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H50" ca="1" si="0" xml:space="preserve"> RANDBETWEEN(1,999)</f>
-        <v>820</v>
+        <v>647</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>109</v>
       </c>
@@ -2424,13 +2424,13 @@
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>276</v>
+        <v>586</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>110</v>
       </c>
@@ -2454,13 +2454,13 @@
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>222</v>
+        <v>855</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>111</v>
       </c>
@@ -2484,13 +2484,13 @@
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>680</v>
+        <v>465</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>112</v>
       </c>
@@ -2514,13 +2514,13 @@
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>584</v>
+        <v>729</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>113</v>
       </c>
@@ -2544,13 +2544,13 @@
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>530</v>
+        <v>6</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>114</v>
       </c>
@@ -2574,13 +2574,13 @@
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>790</v>
+        <v>278</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>115</v>
       </c>
@@ -2604,13 +2604,13 @@
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>835</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>116</v>
       </c>
@@ -2634,13 +2634,13 @@
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>117</v>
       </c>
@@ -2664,13 +2664,13 @@
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>463</v>
+        <v>580</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>118</v>
       </c>
@@ -2694,13 +2694,13 @@
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>979</v>
+        <v>220</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>119</v>
       </c>
@@ -2724,13 +2724,13 @@
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>308</v>
+        <v>771</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>120</v>
       </c>
@@ -2754,13 +2754,13 @@
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>707</v>
+        <v>165</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>121</v>
       </c>
@@ -2784,13 +2784,13 @@
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>782</v>
+        <v>445</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>122</v>
       </c>
@@ -2814,13 +2814,13 @@
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="0"/>
-        <v>587</v>
+        <v>58</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>123</v>
       </c>
@@ -2844,13 +2844,13 @@
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="0"/>
-        <v>778</v>
+        <v>30</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>124</v>
       </c>
@@ -2874,13 +2874,13 @@
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="0"/>
-        <v>254</v>
+        <v>699</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>125</v>
       </c>
@@ -2904,13 +2904,13 @@
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>752</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>126</v>
       </c>
@@ -2934,13 +2934,13 @@
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>127</v>
       </c>
@@ -2964,13 +2964,13 @@
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="0"/>
-        <v>233</v>
+        <v>167</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>128</v>
       </c>
@@ -2994,13 +2994,13 @@
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="0"/>
-        <v>336</v>
+        <v>375</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>129</v>
       </c>
@@ -3024,13 +3024,13 @@
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="0"/>
-        <v>658</v>
+        <v>426</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>130</v>
       </c>
@@ -3054,13 +3054,13 @@
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="0"/>
-        <v>869</v>
+        <v>73</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>131</v>
       </c>
@@ -3084,13 +3084,13 @@
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="0"/>
-        <v>429</v>
+        <v>651</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>132</v>
       </c>
@@ -3114,13 +3114,13 @@
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="0"/>
-        <v>852</v>
+        <v>185</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>133</v>
       </c>
@@ -3144,13 +3144,13 @@
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>269</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>134</v>
       </c>
@@ -3174,13 +3174,13 @@
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="0"/>
-        <v>769</v>
+        <v>937</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>135</v>
       </c>
@@ -3204,13 +3204,13 @@
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="0"/>
-        <v>319</v>
+        <v>632</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>136</v>
       </c>
@@ -3234,13 +3234,13 @@
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="0"/>
-        <v>331</v>
+        <v>639</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>137</v>
       </c>
@@ -3264,13 +3264,13 @@
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>604</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>138</v>
       </c>
@@ -3294,13 +3294,13 @@
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="0"/>
-        <v>438</v>
+        <v>369</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>139</v>
       </c>
@@ -3324,13 +3324,13 @@
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="0"/>
-        <v>161</v>
+        <v>4</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>140</v>
       </c>
@@ -3354,13 +3354,13 @@
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="0"/>
-        <v>365</v>
+        <v>79</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>141</v>
       </c>
@@ -3384,13 +3384,13 @@
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="0"/>
-        <v>432</v>
+        <v>273</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>142</v>
       </c>
@@ -3414,13 +3414,13 @@
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="0"/>
-        <v>280</v>
+        <v>899</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>143</v>
       </c>
@@ -3444,13 +3444,13 @@
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="0"/>
-        <v>160</v>
+        <v>401</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>144</v>
       </c>
@@ -3474,13 +3474,13 @@
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="0"/>
-        <v>954</v>
+        <v>423</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>145</v>
       </c>
@@ -3504,13 +3504,13 @@
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="0"/>
-        <v>872</v>
+        <v>364</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>146</v>
       </c>
@@ -3534,13 +3534,13 @@
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="0"/>
-        <v>367</v>
+        <v>510</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>147</v>
       </c>
@@ -3564,13 +3564,13 @@
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="0"/>
-        <v>606</v>
+        <v>852</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>148</v>
       </c>
@@ -3594,13 +3594,13 @@
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="0"/>
-        <v>612</v>
+        <v>296</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>149</v>
       </c>
@@ -3624,13 +3624,13 @@
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="0"/>
-        <v>353</v>
+        <v>653</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>150</v>
       </c>
@@ -3654,13 +3654,13 @@
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="0"/>
-        <v>971</v>
+        <v>823</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>151</v>
       </c>
@@ -3684,13 +3684,13 @@
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="0"/>
-        <v>935</v>
+        <v>666</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>152</v>
       </c>
@@ -3714,13 +3714,13 @@
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="0"/>
-        <v>117</v>
+        <v>869</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>153</v>
       </c>
@@ -3744,13 +3744,13 @@
       </c>
       <c r="H48">
         <f t="shared" ca="1" si="0"/>
-        <v>131</v>
+        <v>221</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>154</v>
       </c>
@@ -3774,13 +3774,13 @@
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="0"/>
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>155</v>
       </c>
@@ -3804,223 +3804,223 @@
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="0"/>
-        <v>634</v>
+        <v>81</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="C51" s="3"/>
       <c r="D51" s="2"/>
       <c r="F51" s="2"/>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="F58" s="2"/>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" spans="1:9" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="F59" s="4"/>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="F60" s="2"/>
       <c r="I60" s="2"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="C61" s="2"/>
       <c r="F61" s="2"/>
       <c r="I61" s="2"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="F62" s="5"/>
       <c r="I62" s="2"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="F63" s="5"/>
       <c r="I63" s="2"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="F64" s="2"/>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="F68" s="5"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="F69" s="5"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
       <c r="F70" s="5"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F71" s="5"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="F73" s="4"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F76" s="5"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F77" s="5"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F78" s="5"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F79" s="5"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F80" s="5"/>
     </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F81" s="5"/>
     </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F82" s="5"/>
     </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F83" s="5"/>
     </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="6:6" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="6:6" ht="18" x14ac:dyDescent="0.3">
       <c r="F85" s="4"/>
     </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F86" s="2"/>
     </row>
-    <row r="87" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F87" s="2"/>
     </row>
-    <row r="88" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F88" s="5"/>
     </row>
-    <row r="89" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F89" s="5"/>
     </row>
-    <row r="90" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F90" s="5"/>
     </row>
-    <row r="91" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F91" s="5"/>
     </row>
-    <row r="92" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F92" s="5"/>
     </row>
-    <row r="93" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="6:6" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="6:6" ht="18" x14ac:dyDescent="0.3">
       <c r="F94" s="4"/>
     </row>
-    <row r="95" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F97" s="5"/>
     </row>
-    <row r="98" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F98" s="5"/>
     </row>
-    <row r="99" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F99" s="5"/>
     </row>
-    <row r="100" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F100" s="2"/>
     </row>
-    <row r="101" spans="6:6" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="6:6" ht="18" x14ac:dyDescent="0.3">
       <c r="F101" s="4"/>
     </row>
-    <row r="102" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F102" s="2"/>
     </row>
-    <row r="103" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F103" s="2"/>
     </row>
-    <row r="104" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F104" s="5"/>
     </row>
-    <row r="105" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F105" s="5"/>
     </row>
-    <row r="106" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F106" s="2"/>
     </row>
-    <row r="107" spans="6:6" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="6:6" ht="18" x14ac:dyDescent="0.3">
       <c r="F107" s="4"/>
     </row>
-    <row r="108" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F108" s="2"/>
     </row>
-    <row r="109" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F109" s="2"/>
     </row>
-    <row r="110" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F110" s="5"/>
     </row>
-    <row r="111" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F111" s="5"/>
     </row>
   </sheetData>
@@ -4140,10 +4140,10 @@
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>127000</xdr:colOff>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>784860</xdr:colOff>
                 <xdr:row>58</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
+                <xdr:rowOff>175260</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -4162,12 +4162,16 @@
   <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -4196,7 +4200,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>409</v>
       </c>
@@ -4219,7 +4223,7 @@
         <v>10956</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>410</v>
       </c>
@@ -4242,7 +4246,7 @@
         <v>7960</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>411</v>
       </c>
@@ -4265,7 +4269,7 @@
         <v>77904</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>412</v>
       </c>
@@ -4288,7 +4292,7 @@
         <v>32904</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>413</v>
       </c>
@@ -4311,7 +4315,7 @@
         <v>29710</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>414</v>
       </c>
@@ -4334,7 +4338,7 @@
         <v>97124</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>415</v>
       </c>
@@ -4357,7 +4361,7 @@
         <v>11572</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>416</v>
       </c>
@@ -4380,7 +4384,7 @@
         <v>4401</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>417</v>
       </c>
@@ -4403,7 +4407,7 @@
         <v>11010</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>418</v>
       </c>
@@ -4426,7 +4430,7 @@
         <v>11554</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>419</v>
       </c>
@@ -4449,7 +4453,7 @@
         <v>2864</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>420</v>
       </c>
@@ -4472,7 +4476,7 @@
         <v>33160</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>421</v>
       </c>
@@ -4495,7 +4499,7 @@
         <v>27302</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>422</v>
       </c>
@@ -4518,7 +4522,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>423</v>
       </c>
@@ -4541,7 +4545,7 @@
         <v>44663</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>424</v>
       </c>
@@ -4564,7 +4568,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>425</v>
       </c>
@@ -4587,7 +4591,7 @@
         <v>31204</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>426</v>
       </c>
@@ -4610,7 +4614,7 @@
         <v>20815</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>427</v>
       </c>
@@ -4633,7 +4637,7 @@
         <v>60047</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>428</v>
       </c>
@@ -4656,7 +4660,7 @@
         <v>33040</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>429</v>
       </c>
@@ -4679,7 +4683,7 @@
         <v>11725</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>430</v>
       </c>
@@ -4702,7 +4706,7 @@
         <v>16506</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>431</v>
       </c>
@@ -4725,7 +4729,7 @@
         <v>19020</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>432</v>
       </c>
@@ -4748,7 +4752,7 @@
         <v>60201</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>433</v>
       </c>
@@ -4771,7 +4775,7 @@
         <v>51501</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>434</v>
       </c>
@@ -4794,7 +4798,7 @@
         <v>44122</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>435</v>
       </c>
@@ -4817,7 +4821,7 @@
         <v>13440</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>436</v>
       </c>
@@ -4837,7 +4841,7 @@
         <v>16001</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>437</v>
       </c>
@@ -4860,7 +4864,7 @@
         <v>29550</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>438</v>
       </c>
@@ -4883,7 +4887,7 @@
         <v>46383</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>439</v>
       </c>
@@ -4906,7 +4910,7 @@
         <v>6051</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>440</v>
       </c>
@@ -4929,7 +4933,7 @@
         <v>11776</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>441</v>
       </c>
@@ -4952,7 +4956,7 @@
         <v>6111</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>442</v>
       </c>
@@ -4975,7 +4979,7 @@
         <v>43026</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>443</v>
       </c>
@@ -4998,7 +5002,7 @@
         <v>23320</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>444</v>
       </c>
@@ -5021,7 +5025,7 @@
         <v>90008</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>445</v>
       </c>
@@ -5044,7 +5048,7 @@
         <v>4240</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>446</v>
       </c>
@@ -5067,7 +5071,7 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>447</v>
       </c>
@@ -5090,7 +5094,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>448</v>
       </c>
@@ -5113,7 +5117,7 @@
         <v>46901</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>449</v>
       </c>
@@ -5136,7 +5140,7 @@
         <v>34203</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>450</v>
       </c>
@@ -5159,7 +5163,7 @@
         <v>46060</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>451</v>
       </c>
@@ -5182,7 +5186,7 @@
         <v>72209</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>452</v>
       </c>
@@ -5205,7 +5209,7 @@
         <v>41017</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>453</v>
       </c>
@@ -5228,7 +5232,7 @@
         <v>71730</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>454</v>
       </c>
@@ -5251,7 +5255,7 @@
         <v>91762</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>455</v>
       </c>
@@ -5274,7 +5278,7 @@
         <v>60031</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>456</v>
       </c>
@@ -5297,7 +5301,7 @@
         <v>29910</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>457</v>
       </c>
@@ -5320,7 +5324,7 @@
         <v>32765</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>458</v>
       </c>
@@ -5343,28 +5347,28 @@
         <v>60056</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
     </row>
   </sheetData>
